--- a/upfiles/pmc.xlsx
+++ b/upfiles/pmc.xlsx
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="310">
   <si>
     <t>物料编码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1247,6 +1247,10 @@
   </si>
   <si>
     <t>物料说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待检</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1489,34 +1493,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="好" xfId="1" builtinId="26"/>
   </cellStyles>
-  <dxfs count="17">
-    <dxf>
-      <border>
-        <top style="dashDotDot">
-          <color rgb="FF00B050"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="dashDotDot">
-          <color rgb="FF00B050"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="dashDotDot">
-          <color rgb="FF00B050"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="14">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3811,7 +3788,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4270,7 +4247,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J6" sqref="J6"/>
+      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4812,10 +4789,10 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:M1048576">
-    <cfRule type="expression" dxfId="4" priority="3">
+    <cfRule type="expression" dxfId="1" priority="3">
       <formula>$K1="待检"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4837,7 +4814,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4957,6 +4934,9 @@
         <f>INDEX(成品进仓!G:G,MATCH(G4,成品进仓!I:I,0))</f>
         <v>#N/A</v>
       </c>
+      <c r="J4" s="15" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="5" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="16" t="e">
@@ -4979,6 +4959,9 @@
         <f>INDEX(成品进仓!G:G,MATCH(G5,成品进仓!I:I,0))</f>
         <v>#N/A</v>
       </c>
+      <c r="J5" s="15" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="6" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="16" t="e">
@@ -5001,6 +4984,9 @@
         <f>INDEX(成品进仓!G:G,MATCH(G6,成品进仓!I:I,0))</f>
         <v>#N/A</v>
       </c>
+      <c r="J6" s="15" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="7" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="16" t="e">
@@ -5023,6 +5009,9 @@
         <f>INDEX(成品进仓!G:G,MATCH(G7,成品进仓!I:I,0))</f>
         <v>#N/A</v>
       </c>
+      <c r="J7" s="15" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="16" t="e">
@@ -5045,6 +5034,9 @@
         <f>INDEX(成品进仓!G:G,MATCH(G8,成品进仓!I:I,0))</f>
         <v>#N/A</v>
       </c>
+      <c r="J8" s="15" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="9" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="16" t="e">
@@ -5067,6 +5059,9 @@
         <f>INDEX(成品进仓!G:G,MATCH(G9,成品进仓!I:I,0))</f>
         <v>#N/A</v>
       </c>
+      <c r="J9" s="15" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="10" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="16" t="e">
@@ -5089,6 +5084,9 @@
         <f>INDEX(成品进仓!G:G,MATCH(G10,成品进仓!I:I,0))</f>
         <v>#N/A</v>
       </c>
+      <c r="J10" s="15" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="11" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="16" t="e">
@@ -5111,6 +5109,9 @@
         <f>INDEX(成品进仓!G:G,MATCH(G11,成品进仓!I:I,0))</f>
         <v>#N/A</v>
       </c>
+      <c r="J11" s="15" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="12" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="16" t="e">
@@ -5133,6 +5134,9 @@
         <f>INDEX(成品进仓!G:G,MATCH(G12,成品进仓!I:I,0))</f>
         <v>#N/A</v>
       </c>
+      <c r="J12" s="15" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="13" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="16" t="e">
@@ -5155,6 +5159,9 @@
         <f>INDEX(成品进仓!G:G,MATCH(G13,成品进仓!I:I,0))</f>
         <v>#N/A</v>
       </c>
+      <c r="J13" s="15" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="14" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="16" t="e">
@@ -5177,6 +5184,9 @@
         <f>INDEX(成品进仓!G:G,MATCH(G14,成品进仓!I:I,0))</f>
         <v>#N/A</v>
       </c>
+      <c r="J14" s="15" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="15" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="16" t="e">
@@ -5199,6 +5209,9 @@
         <f>INDEX(成品进仓!G:G,MATCH(G15,成品进仓!I:I,0))</f>
         <v>#N/A</v>
       </c>
+      <c r="J15" s="15" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="16" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="16" t="e">
@@ -5221,8 +5234,11 @@
         <f>INDEX(成品进仓!G:G,MATCH(G16,成品进仓!I:I,0))</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="17" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J16" s="15" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="16" t="e">
         <f>INDEX(成品进仓!B:B,MATCH(G17,成品进仓!I:I,0))</f>
         <v>#N/A</v>
@@ -5243,8 +5259,11 @@
         <f>INDEX(成品进仓!G:G,MATCH(G17,成品进仓!I:I,0))</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="18" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J17" s="15" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="16" t="e">
         <f>INDEX(成品进仓!B:B,MATCH(G18,成品进仓!I:I,0))</f>
         <v>#N/A</v>
@@ -5265,8 +5284,11 @@
         <f>INDEX(成品进仓!G:G,MATCH(G18,成品进仓!I:I,0))</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="19" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J18" s="15" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="16" t="e">
         <f>INDEX(成品进仓!B:B,MATCH(G19,成品进仓!I:I,0))</f>
         <v>#N/A</v>
@@ -5287,9 +5309,17 @@
         <f>INDEX(成品进仓!G:G,MATCH(G19,成品进仓!I:I,0))</f>
         <v>#N/A</v>
       </c>
+      <c r="J19" s="15" t="s">
+        <v>309</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J1048576">
+      <formula1>"准予放行,暂不放行,待检"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.35433070866141736" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="85" fitToHeight="0" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
   <headerFooter scaleWithDoc="0">
@@ -5969,7 +5999,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7860,7 +7890,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:O1048576">
-    <cfRule type="expression" dxfId="16" priority="1">
+    <cfRule type="expression" dxfId="13" priority="1">
       <formula>AND(ROW()&gt;3,$B1&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9329,7 +9359,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
+      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -9934,7 +9964,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:O1048576">
-    <cfRule type="expression" dxfId="15" priority="1">
+    <cfRule type="expression" dxfId="12" priority="1">
       <formula>AND($N1="跟进中",$L1&lt;$K1*0.95)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9961,7 +9991,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -10583,13 +10613,13 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:N1048576">
-    <cfRule type="expression" dxfId="14" priority="1">
+    <cfRule type="expression" dxfId="11" priority="1">
       <formula>AND($K1="跟进中",OR($I1="不合格",$I1="退货"))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="2">
+    <cfRule type="expression" dxfId="10" priority="2">
       <formula>AND($K1="跟进中",OR($I1="合格",$I1="特采放行",$I1="车间挑选"))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="3">
+    <cfRule type="expression" dxfId="9" priority="3">
       <formula>$K1="跟进中"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10616,7 +10646,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
+      <selection pane="bottomLeft" activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -11250,12 +11280,12 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:L1048576">
-    <cfRule type="expression" dxfId="11" priority="3">
+    <cfRule type="expression" dxfId="8" priority="3">
       <formula>OR($I1="不合格",$I1="退货")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="10" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I1048576">
@@ -11280,7 +11310,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -12035,7 +12065,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:M1048576">
-    <cfRule type="expression" dxfId="9" priority="1">
+    <cfRule type="expression" dxfId="6" priority="1">
       <formula>$E1&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12060,7 +12090,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J9" sqref="J9"/>
+      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -12836,17 +12866,17 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="O1:O1048576">
-    <cfRule type="expression" dxfId="8" priority="2">
+    <cfRule type="expression" dxfId="5" priority="2">
       <formula>AND($O1&gt;$G1*0.95,$U1="跟进中")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P1:P1048576">
-    <cfRule type="expression" dxfId="7" priority="4">
+    <cfRule type="expression" dxfId="4" priority="4">
       <formula>AND($P1&gt;$G1*0.95,$U1="跟进中")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1:Q1048576">
-    <cfRule type="expression" dxfId="6" priority="3">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>AND($Q1&gt;($G1-$P1)*0.95,$U1="跟进中")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12873,7 +12903,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
+      <selection pane="bottomLeft" activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -13265,6 +13295,11 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I1048576">
+      <formula1>"已完结,跟进中"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.35433070866141736" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="99" fitToHeight="0" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
   <headerFooter scaleWithDoc="0">
